--- a/ams/cases/ieee39/ieee39_uced_pvd1.xlsx
+++ b/ams/cases/ieee39/ieee39_uced_pvd1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5487AAF4-6A5F-5E4C-996A-1DC991451D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2078D8-B312-404E-9FB8-869A549488CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -23,14 +23,15 @@
     <sheet name="Area" sheetId="7" r:id="rId8"/>
     <sheet name="Region" sheetId="8" r:id="rId9"/>
     <sheet name="GCost" sheetId="6" r:id="rId10"/>
-    <sheet name="EDTSlot" sheetId="12" r:id="rId11"/>
-    <sheet name="UCTSlot" sheetId="13" r:id="rId12"/>
-    <sheet name="SFR" sheetId="9" r:id="rId13"/>
-    <sheet name="SFRCost" sheetId="10" r:id="rId14"/>
-    <sheet name="SR" sheetId="18" r:id="rId15"/>
-    <sheet name="SRCost" sheetId="20" r:id="rId16"/>
-    <sheet name="NSR" sheetId="19" r:id="rId17"/>
-    <sheet name="NSRCost" sheetId="21" r:id="rId18"/>
+    <sheet name="DCost" sheetId="23" r:id="rId11"/>
+    <sheet name="EDTSlot" sheetId="12" r:id="rId12"/>
+    <sheet name="UCTSlot" sheetId="13" r:id="rId13"/>
+    <sheet name="SFR" sheetId="9" r:id="rId14"/>
+    <sheet name="SFRCost" sheetId="10" r:id="rId15"/>
+    <sheet name="SR" sheetId="18" r:id="rId16"/>
+    <sheet name="SRCost" sheetId="20" r:id="rId17"/>
+    <sheet name="NSR" sheetId="19" r:id="rId18"/>
+    <sheet name="NSRCost" sheetId="21" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="545">
   <si>
     <t>idx</t>
   </si>
@@ -1625,6 +1626,129 @@
   </si>
   <si>
     <t>PVD1_1</t>
+  </si>
+  <si>
+    <t>pq</t>
+  </si>
+  <si>
+    <t>cdp</t>
+  </si>
+  <si>
+    <t>DCost_1</t>
+  </si>
+  <si>
+    <t>Dcost 1</t>
+  </si>
+  <si>
+    <t>DCost_2</t>
+  </si>
+  <si>
+    <t>Dcost 2</t>
+  </si>
+  <si>
+    <t>DCost_3</t>
+  </si>
+  <si>
+    <t>Dcost 3</t>
+  </si>
+  <si>
+    <t>DCost_4</t>
+  </si>
+  <si>
+    <t>Dcost 4</t>
+  </si>
+  <si>
+    <t>DCost_5</t>
+  </si>
+  <si>
+    <t>Dcost 5</t>
+  </si>
+  <si>
+    <t>DCost_6</t>
+  </si>
+  <si>
+    <t>Dcost 6</t>
+  </si>
+  <si>
+    <t>DCost_7</t>
+  </si>
+  <si>
+    <t>Dcost 7</t>
+  </si>
+  <si>
+    <t>DCost_8</t>
+  </si>
+  <si>
+    <t>Dcost 8</t>
+  </si>
+  <si>
+    <t>DCost_9</t>
+  </si>
+  <si>
+    <t>Dcost 9</t>
+  </si>
+  <si>
+    <t>DCost_10</t>
+  </si>
+  <si>
+    <t>Dcost 10</t>
+  </si>
+  <si>
+    <t>DCost_11</t>
+  </si>
+  <si>
+    <t>Dcost 11</t>
+  </si>
+  <si>
+    <t>DCost_12</t>
+  </si>
+  <si>
+    <t>Dcost 12</t>
+  </si>
+  <si>
+    <t>DCost_13</t>
+  </si>
+  <si>
+    <t>Dcost 13</t>
+  </si>
+  <si>
+    <t>DCost_14</t>
+  </si>
+  <si>
+    <t>Dcost 14</t>
+  </si>
+  <si>
+    <t>DCost_15</t>
+  </si>
+  <si>
+    <t>Dcost 15</t>
+  </si>
+  <si>
+    <t>DCost_16</t>
+  </si>
+  <si>
+    <t>Dcost 16</t>
+  </si>
+  <si>
+    <t>DCost_17</t>
+  </si>
+  <si>
+    <t>Dcost 17</t>
+  </si>
+  <si>
+    <t>DCost_18</t>
+  </si>
+  <si>
+    <t>Dcost 18</t>
+  </si>
+  <si>
+    <t>DCost_19</t>
+  </si>
+  <si>
+    <t>Dcost 19</t>
+  </si>
+  <si>
+    <t>ctrl</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1870,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1795,11 +1919,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1834,6 +1969,13 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2208,7 +2350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
@@ -2608,6 +2750,421 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101CD559-96D4-1645-B652-E477B2900134}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="C8" s="18">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="C12" s="18">
+        <v>1</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="13">
+        <v>13</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="C15" s="18">
+        <v>1</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="13">
+        <v>14</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C16" s="18">
+        <v>1</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="13">
+        <v>15</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="C17" s="18">
+        <v>1</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="13">
+        <v>16</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="13">
+        <v>17</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="C19" s="18">
+        <v>1</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="13">
+        <v>18</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="C20" s="18">
+        <v>1</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7E68EB-A0F6-9442-8602-C20717626DB0}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -3052,7 +3609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D48AD92-083E-E846-8F62-C9A43521848F}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -3422,7 +3979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F77866-C777-0B41-8C14-27D8C9A5BF9B}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -3507,7 +4064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE302B1E-1C21-5545-8C07-A8652D0B6F47}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -3743,7 +4300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F41B66-3F5A-A846-A642-21ADD81835C9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3819,7 +4376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F8382B-5372-9443-A9F0-6DD466EDEE98}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -4022,7 +4579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC710CCF-6BF4-8444-9442-818618AF42C4}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -4098,7 +4655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9484A1E6-40ED-8148-BBE3-6D006206561E}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -5962,16 +6519,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="159" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -6005,8 +6562,11 @@
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="19" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6040,8 +6600,11 @@
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6075,8 +6638,11 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6110,8 +6676,11 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6145,8 +6714,11 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6180,8 +6752,11 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6215,8 +6790,11 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6250,8 +6828,11 @@
       <c r="K8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6285,8 +6866,11 @@
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6320,8 +6904,11 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6355,8 +6942,11 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6390,8 +6980,11 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6425,8 +7018,11 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6460,8 +7056,11 @@
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6495,8 +7094,11 @@
       <c r="K15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6530,8 +7132,11 @@
       <c r="K16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6565,8 +7170,11 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6600,8 +7208,11 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6635,8 +7246,11 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6668,6 +7282,9 @@
         <v>0.8</v>
       </c>
       <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>1</v>
       </c>
     </row>

--- a/ams/cases/ieee39/ieee39_uced_pvd1.xlsx
+++ b/ams/cases/ieee39/ieee39_uced_pvd1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2078D8-B312-404E-9FB8-869A549488CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8AB506-5D4D-724E-AB6B-79B176E6BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="PVD1" sheetId="22" r:id="rId6"/>
     <sheet name="Line" sheetId="5" r:id="rId7"/>
     <sheet name="Area" sheetId="7" r:id="rId8"/>
-    <sheet name="Region" sheetId="8" r:id="rId9"/>
+    <sheet name="Zone" sheetId="8" r:id="rId9"/>
     <sheet name="GCost" sheetId="6" r:id="rId10"/>
     <sheet name="DCost" sheetId="23" r:id="rId11"/>
     <sheet name="EDTSlot" sheetId="12" r:id="rId12"/>
@@ -2753,7 +2753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101CD559-96D4-1645-B652-E477B2900134}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -12449,7 +12449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1076654-EF34-CC4B-89BB-5D9DC73428FE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/ams/cases/ieee39/ieee39_uced_pvd1.xlsx
+++ b/ams/cases/ieee39/ieee39_uced_pvd1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8AB506-5D4D-724E-AB6B-79B176E6BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26340CA2-62AF-E94A-9949-B647EB54C428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -1934,7 +1934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1976,6 +1976,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3984,7 +3987,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4009,7 +4012,7 @@
         <v>204</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4031,8 +4034,8 @@
       <c r="F2" s="2">
         <v>0.05</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>201</v>
+      <c r="G2" s="20" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4054,8 +4057,8 @@
       <c r="F3" s="2">
         <v>0.05</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>202</v>
+      <c r="G3" s="20" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4305,7 +4308,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4327,7 +4330,7 @@
         <v>234</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16">
@@ -4346,8 +4349,8 @@
       <c r="E2" s="6">
         <v>0.03</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>201</v>
+      <c r="F2" s="20" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16">
@@ -4366,8 +4369,8 @@
       <c r="E3" s="6">
         <v>0.03</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>202</v>
+      <c r="F3" s="20" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4584,7 +4587,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4606,7 +4609,7 @@
         <v>234</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16">
@@ -4625,8 +4628,8 @@
       <c r="E2" s="6">
         <v>0.05</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>201</v>
+      <c r="F2" s="20" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16">
@@ -4645,8 +4648,8 @@
       <c r="E3" s="6">
         <v>0.05</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>202</v>
+      <c r="F3" s="20" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -12392,7 +12395,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12450,7 +12453,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
